--- a/ProjectKrishi/Krishi_dataset.xlsx
+++ b/ProjectKrishi/Krishi_dataset.xlsx
@@ -69,7 +69,7 @@
     <t>Brinjal</t>
   </si>
   <si>
-    <t>Wheat</t>
+    <t>Apple</t>
   </si>
 </sst>
 </file>

--- a/ProjectKrishi/Krishi_dataset.xlsx
+++ b/ProjectKrishi/Krishi_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Aditi\GIT\sem4project\MiniProject-1\ProjectKrishi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A7614-63B2-4634-817B-765725283680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC648B5C-761C-46EE-870E-EB1B6034E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -54,7 +54,7 @@
     <t>aaaaa</t>
   </si>
   <si>
-    <t>Carrot</t>
+    <t>Apple</t>
   </si>
   <si>
     <t>India</t>
@@ -78,7 +78,25 @@
     <t>Brinjal</t>
   </si>
   <si>
-    <t>Apple</t>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Agriculture Sprayers</t>
+  </si>
+  <si>
+    <t>fffff</t>
+  </si>
+  <si>
+    <t>Chana-dal</t>
+  </si>
+  <si>
+    <t>Urad-dal</t>
+  </si>
+  <si>
+    <t>ggggg</t>
   </si>
 </sst>
 </file>
@@ -98,12 +116,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -130,19 +148,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,7 +387,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -409,13 +435,13 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>44166.351388888892</v>
       </c>
       <c r="F2" s="1">
@@ -429,7 +455,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1000</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -441,7 +467,7 @@
       <c r="D3" s="1">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>44166.351388888892</v>
       </c>
       <c r="F3" s="1">
@@ -461,13 +487,13 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>43502.648611111108</v>
       </c>
       <c r="F4" s="1">
@@ -481,7 +507,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3004</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -493,7 +519,7 @@
       <c r="D5" s="1">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>43502.648611111108</v>
       </c>
       <c r="F5" s="1">
@@ -513,13 +539,13 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>43502.648611111108</v>
       </c>
       <c r="F6" s="1">
@@ -583,7 +609,9 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" s="7">
         <v>12</v>
       </c>
@@ -752,25 +780,428 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="7">
+        <v>3100</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>44166.351388888892</v>
+      </c>
+      <c r="F14" s="7">
+        <v>250</v>
+      </c>
+      <c r="G14" s="7">
+        <v>17850</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="7">
+        <v>3100</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7">
+        <v>44166.351388888892</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="7">
+        <v>17850</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="7">
+        <v>3104</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>43502.648611111108</v>
+      </c>
+      <c r="F16" s="7">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7">
+        <v>13047</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A17" s="7">
+        <v>3104</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7">
+        <v>43502.648611111108</v>
+      </c>
+      <c r="F17" s="7">
+        <v>500</v>
+      </c>
+      <c r="G17" s="7">
+        <v>13047</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A18" s="7">
+        <v>3124</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7">
+        <v>43502.648611111101</v>
+      </c>
+      <c r="F18" s="7">
+        <v>150</v>
+      </c>
+      <c r="G18" s="7">
+        <v>13326</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A19" s="10">
+        <v>5500</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10">
+        <v>43502.648611111101</v>
+      </c>
+      <c r="F19" s="10">
+        <v>120</v>
+      </c>
+      <c r="G19" s="10">
+        <v>13328</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A20" s="4">
+        <v>5500</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9">
+        <v>43502.648611111101</v>
+      </c>
+      <c r="F20" s="9">
+        <v>240</v>
+      </c>
+      <c r="G20" s="9">
+        <v>13328</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A21" s="10">
+        <v>5501</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="10">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10">
+        <v>43502.648611111101</v>
+      </c>
+      <c r="F21" s="10">
+        <v>120</v>
+      </c>
+      <c r="G21" s="10">
+        <v>13329</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A22" s="9">
+        <v>5501</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9">
+        <v>43502.648611111101</v>
+      </c>
+      <c r="F22" s="9">
+        <v>240</v>
+      </c>
+      <c r="G22" s="9">
+        <v>13329</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A23" s="10">
+        <v>5502</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="10">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10">
+        <v>43502.648611111101</v>
+      </c>
+      <c r="F23" s="10">
+        <v>120</v>
+      </c>
+      <c r="G23" s="10">
+        <v>13330</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
